--- a/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02950307763024238</v>
+        <v>0.02950307763024243</v>
       </c>
       <c r="C2" t="n">
         <v>0.9991323648205841</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03244348355771106</v>
+        <v>0.03244348355771105</v>
       </c>
       <c r="C4" t="n">
         <v>0.9995607352593556</v>

--- a/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03244348355771105</v>
+        <v>0.03244348355771106</v>
       </c>
       <c r="C4" t="n">
         <v>0.9995607352593556</v>

--- a/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -467,7 +472,10 @@
       <c r="C2" t="n">
         <v>0.9991323648205841</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0.1292627146720763</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -485,7 +493,10 @@
       <c r="C3" t="n">
         <v>0.9995404134334881</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0.1526989685211047</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -503,7 +514,10 @@
       <c r="C4" t="n">
         <v>0.9995607352593556</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0.1401297014068613</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +485,20 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,11 +513,25 @@
         <v>0.9995404134334881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1526989685211047</v>
+        <v>0.1526989685211046</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -520,6 +553,20 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02950307763024243</v>
+        <v>0.02950307763024225</v>
       </c>
       <c r="C2" t="n">
         <v>0.9991323648205841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1292627146720763</v>
+        <v>0.1292627146720758</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.3776785511166963</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.968</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.3776785511166963</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.968</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.3776785511166963</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.968</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02950307763024225</v>
+        <v>0.02950307763024243</v>
       </c>
       <c r="C2" t="n">
         <v>0.9991323648205841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1292627146720758</v>
+        <v>0.1292627146720763</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.3776785511166963</v>
+        <v>0.4707727723832553</v>
       </c>
       <c r="H2" t="n">
-        <v>0.968</v>
+        <v>0.8079999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3776785511166963</v>
+        <v>0.4707727723832553</v>
       </c>
       <c r="H3" t="n">
-        <v>0.968</v>
+        <v>0.8079999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.3776785511166963</v>
+        <v>0.4707727723832553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.968</v>
+        <v>0.8079999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Nefropatías.xlsx
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4707727723832553</v>
+        <v>0.3552643978832445</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4707727723832553</v>
+        <v>0.3552643978832445</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4707727723832553</v>
+        <v>0.3552643978832445</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.9990000000000001</v>
       </c>
     </row>
   </sheetData>
